--- a/config_11.17/item_config.xlsx
+++ b/config_11.17/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="646">
   <si>
     <t>id|行号</t>
   </si>
@@ -2457,22 +2457,6 @@
   </si>
   <si>
     <t>新人专享豪华宝箱</t>
-  </si>
-  <si>
-    <t>prop_guess_apple_cz</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_guess_apple_sd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ldfd_icon_shui</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ldfd_zpg_icon_cc</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>prop_11.11_cjq</t>
@@ -2714,7 +2698,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2736,12 +2720,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2800,7 +2778,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2873,19 +2851,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3166,11 +3135,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q182"/>
+  <dimension ref="A1:Q180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F181" sqref="F181"/>
+      <selection pane="bottomLeft" activeCell="B172" sqref="B172:B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5777,7 +5746,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -6321,7 +6290,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D97" s="2">
         <v>-1</v>
@@ -8446,7 +8415,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D160" s="11">
         <v>-1</v>
@@ -8455,7 +8424,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="G160" s="11">
         <v>1</v>
@@ -8464,13 +8433,13 @@
         <v>34</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="J160" s="12" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="L160" s="12" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="161" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8481,7 +8450,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D161" s="11">
         <v>-1</v>
@@ -8490,7 +8459,7 @@
         <v>1</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G161" s="11">
         <v>1</v>
@@ -8499,13 +8468,13 @@
         <v>34</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="J161" s="12" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="L161" s="12" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="162" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8516,7 +8485,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="22" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D162" s="11">
         <v>-1</v>
@@ -8612,7 +8581,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="22" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D165" s="11">
         <v>-1</v>
@@ -8621,7 +8590,7 @@
         <v>1</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="G165" s="11">
         <v>1</v>
@@ -8630,10 +8599,10 @@
         <v>34</v>
       </c>
       <c r="I165" s="12" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="J165" s="12" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="166" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8644,7 +8613,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="22" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D166" s="11">
         <v>-1</v>
@@ -8653,7 +8622,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="12" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G166" s="11">
         <v>1</v>
@@ -8662,10 +8631,10 @@
         <v>34</v>
       </c>
       <c r="I166" s="12" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="J166" s="12" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="167" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8758,7 +8727,7 @@
         <v>34</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="J169" s="12" t="s">
         <v>572</v>
@@ -8772,7 +8741,7 @@
         <v>169</v>
       </c>
       <c r="C170" s="22" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D170" s="11">
         <v>-1</v>
@@ -8781,7 +8750,7 @@
         <v>1</v>
       </c>
       <c r="F170" s="12" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="G170" s="11">
         <v>1</v>
@@ -8790,10 +8759,10 @@
         <v>34</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="J170" s="12" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="171" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8804,7 +8773,7 @@
         <v>170</v>
       </c>
       <c r="C171" s="22" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D171" s="11">
         <v>-1</v>
@@ -8813,7 +8782,7 @@
         <v>1</v>
       </c>
       <c r="F171" s="12" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G171" s="11">
         <v>1</v>
@@ -8822,10 +8791,10 @@
         <v>34</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J171" s="12" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="172" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8845,7 +8814,7 @@
         <v>1</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G172" s="11">
         <v>0</v>
@@ -8956,7 +8925,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="176" spans="1:12" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="11">
         <v>175</v>
       </c>
@@ -8964,135 +8933,145 @@
         <v>175</v>
       </c>
       <c r="C176" s="24" t="s">
+        <v>602</v>
+      </c>
+      <c r="D176" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E176" s="23">
+        <v>1</v>
+      </c>
+      <c r="F176" s="23" t="s">
         <v>603</v>
-      </c>
-      <c r="D176" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E176" s="23">
-        <v>1</v>
-      </c>
-      <c r="F176" s="25" t="s">
-        <v>604</v>
       </c>
       <c r="G176" s="23">
         <v>0</v>
       </c>
       <c r="H176" s="23">
-        <v>36</v>
-      </c>
-      <c r="I176" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="J176" s="25" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="I176" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="J176" s="23" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="11">
         <v>176</v>
       </c>
       <c r="B177" s="11">
         <v>176</v>
       </c>
-      <c r="C177" s="24" t="s">
-        <v>602</v>
-      </c>
-      <c r="D177" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E177" s="23">
-        <v>1</v>
-      </c>
-      <c r="F177" s="23" t="s">
-        <v>605</v>
-      </c>
-      <c r="G177" s="23">
+      <c r="C177" s="25" t="s">
+        <v>628</v>
+      </c>
+      <c r="D177" s="25">
+        <v>-1</v>
+      </c>
+      <c r="E177" s="25">
+        <v>1</v>
+      </c>
+      <c r="F177" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="G177" s="25">
         <v>0</v>
       </c>
-      <c r="H177" s="23">
-        <v>38</v>
+      <c r="H177" s="25">
+        <v>33</v>
       </c>
       <c r="I177" s="25" t="s">
-        <v>444</v>
+        <v>630</v>
       </c>
       <c r="J177" s="25" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A178" s="11">
         <v>177</v>
       </c>
       <c r="B178" s="11">
         <v>177</v>
       </c>
-      <c r="C178" s="27" t="s">
-        <v>606</v>
-      </c>
-      <c r="D178" s="26">
-        <v>-1</v>
-      </c>
-      <c r="E178" s="26">
-        <v>1</v>
-      </c>
-      <c r="F178" s="26" t="s">
-        <v>607</v>
-      </c>
-      <c r="G178" s="26">
-        <v>0</v>
-      </c>
-      <c r="H178" s="26">
-        <v>33</v>
-      </c>
-      <c r="I178" s="26" t="s">
-        <v>610</v>
-      </c>
-      <c r="J178" s="26" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C178" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="D178" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E178" s="2">
+        <v>1</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="G178" s="2">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2">
+        <v>32</v>
+      </c>
+      <c r="I178" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="J178" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="K178" s="5"/>
+      <c r="L178" s="5"/>
+      <c r="N178" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A179" s="11">
         <v>178</v>
       </c>
       <c r="B179" s="11">
         <v>178</v>
       </c>
-      <c r="C179" s="28" t="s">
-        <v>632</v>
-      </c>
-      <c r="D179" s="28">
-        <v>-1</v>
-      </c>
-      <c r="E179" s="28">
-        <v>1</v>
-      </c>
-      <c r="F179" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="G179" s="28">
-        <v>0</v>
-      </c>
-      <c r="H179" s="28">
+      <c r="C179" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="D179" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E179" s="2">
+        <v>1</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="G179" s="2">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2">
         <v>33</v>
       </c>
-      <c r="I179" s="28" t="s">
-        <v>634</v>
-      </c>
-      <c r="J179" s="28" t="s">
-        <v>635</v>
+      <c r="I179" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="J179" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="K179" s="5"/>
+      <c r="L179" s="5"/>
+      <c r="N179" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A180" s="2">
+      <c r="A180" s="11">
         <v>179</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180" s="11">
         <v>179</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D180" s="2">
         <v>-1</v>
@@ -9101,97 +9080,23 @@
         <v>1</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G180" s="2">
         <v>1</v>
       </c>
       <c r="H180" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I180" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="J180" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="K180" s="5"/>
       <c r="L180" s="5"/>
       <c r="N180" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A181" s="2">
-        <v>180</v>
-      </c>
-      <c r="B181" s="2">
-        <v>180</v>
-      </c>
-      <c r="C181" s="14" t="s">
-        <v>639</v>
-      </c>
-      <c r="D181" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E181" s="2">
-        <v>1</v>
-      </c>
-      <c r="F181" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="G181" s="2">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2">
-        <v>33</v>
-      </c>
-      <c r="I181" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="J181" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="K181" s="5"/>
-      <c r="L181" s="5"/>
-      <c r="N181" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A182" s="2">
-        <v>181</v>
-      </c>
-      <c r="B182" s="2">
-        <v>181</v>
-      </c>
-      <c r="C182" s="14" t="s">
-        <v>640</v>
-      </c>
-      <c r="D182" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E182" s="2">
-        <v>1</v>
-      </c>
-      <c r="F182" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="G182" s="2">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2">
-        <v>33</v>
-      </c>
-      <c r="I182" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="J182" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="K182" s="5"/>
-      <c r="L182" s="5"/>
-      <c r="N182" s="2">
         <v>9</v>
       </c>
     </row>
